--- a/www.eia.gov/forecasts/steo/xls/Fig33.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig33.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Industrial</t>
@@ -50,7 +50,7 @@
     <t>Change</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -402,97 +402,97 @@
                   <c:v>-1.2684490207E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-6.0099237173000001E-3</c:v>
+                  <c:v>-6.0814477221999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.3526506154999996E-3</c:v>
+                  <c:v>-8.8532408000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.0524890058000001E-2</c:v>
+                  <c:v>-1.0651810078E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.0278499476E-2</c:v>
+                  <c:v>-1.0106621389999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-8.5218547252999995E-3</c:v>
+                  <c:v>-8.0483126974999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-6.818101983E-3</c:v>
+                  <c:v>-6.0122254326000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.1751586312000002E-3</c:v>
+                  <c:v>3.2038188721000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.7085390000000003E-3</c:v>
+                  <c:v>1.7137372284999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.6656500000000002E-4</c:v>
+                  <c:v>4.6867209999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0182279999999998E-2</c:v>
+                  <c:v>1.5703769999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6654080000000003E-3</c:v>
+                  <c:v>1.176464E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0135760000000001E-2</c:v>
+                  <c:v>1.481854E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.6250750000000003E-3</c:v>
+                  <c:v>1.18064E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.3255919999999997E-3</c:v>
+                  <c:v>1.2079319999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.280478E-2</c:v>
+                  <c:v>1.5507169999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8359460000000001E-2</c:v>
+                  <c:v>2.0086989999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1125440000000002E-2</c:v>
+                  <c:v>2.1564119999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.904619E-2</c:v>
+                  <c:v>2.8702969999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1569759999999995E-2</c:v>
+                  <c:v>2.6323050000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1111469999999999E-2</c:v>
+                  <c:v>2.602471E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2205409999999997E-2</c:v>
+                  <c:v>2.7116699999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3203860000000002E-2</c:v>
+                  <c:v>2.8420209999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.4708910000000003E-2</c:v>
+                  <c:v>3.0761189999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.506695E-2</c:v>
+                  <c:v>3.1869330000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.4882139999999999E-2</c:v>
+                  <c:v>3.2570130000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.3630260000000002E-2</c:v>
+                  <c:v>3.2608290000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.2773080000000003E-2</c:v>
+                  <c:v>3.2692990000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.1780469999999998E-2</c:v>
+                  <c:v>3.2568559999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0388850000000002E-2</c:v>
+                  <c:v>3.2317100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9327420000000003E-2</c:v>
+                  <c:v>3.1718400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.8329710000000001E-2</c:v>
+                  <c:v>3.0855570000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,8 +507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="446451616"/>
-        <c:axId val="446443776"/>
+        <c:axId val="635000208"/>
+        <c:axId val="634999648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -877,97 +877,97 @@
                   <c:v>103.69370000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>104.22969999999999</c:v>
+                  <c:v>104.2222</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>104.5945</c:v>
+                  <c:v>104.54170000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>104.4671</c:v>
+                  <c:v>104.4537</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>104.2248</c:v>
+                  <c:v>104.24290000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>104.2687</c:v>
+                  <c:v>104.3185</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>103.7746963</c:v>
+                  <c:v>103.85890000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>103.81888519</c:v>
+                  <c:v>104.37854197999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>104.1618</c:v>
+                  <c:v>104.72867037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>104.3235</c:v>
+                  <c:v>104.9034</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>104.4786</c:v>
+                  <c:v>105.0497</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104.53060000000001</c:v>
+                  <c:v>105.06010000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>104.74469999999999</c:v>
+                  <c:v>105.2303</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>105.0245</c:v>
+                  <c:v>105.45269999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>105.4653</c:v>
+                  <c:v>105.8045</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>105.8048</c:v>
+                  <c:v>106.0735</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>106.1383</c:v>
+                  <c:v>106.3368</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>106.4714</c:v>
+                  <c:v>106.568</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>106.789</c:v>
+                  <c:v>106.84</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>107.0964</c:v>
+                  <c:v>107.12609999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>107.4024</c:v>
+                  <c:v>107.4542</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>107.6833</c:v>
+                  <c:v>107.748</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>107.9477</c:v>
+                  <c:v>108.0352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>108.1588</c:v>
+                  <c:v>108.2919</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>108.4178</c:v>
+                  <c:v>108.5839</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>108.6879</c:v>
+                  <c:v>108.8873</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>109.0121</c:v>
+                  <c:v>109.2546</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>109.2723</c:v>
+                  <c:v>109.54130000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>109.51139999999999</c:v>
+                  <c:v>109.8001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>109.70699999999999</c:v>
+                  <c:v>110.012</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>109.9208</c:v>
+                  <c:v>110.22880000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>110.13039999999999</c:v>
+                  <c:v>110.4315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,8 +984,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446454416"/>
-        <c:axId val="446451056"/>
+        <c:axId val="634998528"/>
+        <c:axId val="634999088"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1068,10 +1068,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,11 +1101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446451616"/>
-        <c:axId val="446443776"/>
+        <c:axId val="635000208"/>
+        <c:axId val="634999648"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446454416"/>
+        <c:axId val="634998528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1122,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446451056"/>
+        <c:crossAx val="634999088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1133,7 +1133,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446451056"/>
+        <c:axId val="634999088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1161,13 +1161,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446454416"/>
+        <c:crossAx val="634998528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446443776"/>
+        <c:axId val="634999648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -1184,13 +1184,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446451616"/>
+        <c:crossAx val="635000208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446451616"/>
+        <c:axId val="635000208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446443776"/>
+        <c:crossAx val="634999648"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1344,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
@@ -2006,10 +2006,10 @@
             <v>42522</v>
           </cell>
           <cell r="B69">
-            <v>104.22969999999999</v>
+            <v>104.2222</v>
           </cell>
           <cell r="C69">
-            <v>-6.0099237173000001E-3</v>
+            <v>-6.0814477221999997E-3</v>
           </cell>
         </row>
         <row r="70">
@@ -2017,10 +2017,10 @@
             <v>42552</v>
           </cell>
           <cell r="B70">
-            <v>104.5945</v>
+            <v>104.54170000000001</v>
           </cell>
           <cell r="C70">
-            <v>-8.3526506154999996E-3</v>
+            <v>-8.8532408000000003E-3</v>
           </cell>
         </row>
         <row r="71">
@@ -2028,10 +2028,10 @@
             <v>42583</v>
           </cell>
           <cell r="B71">
-            <v>104.4671</v>
+            <v>104.4537</v>
           </cell>
           <cell r="C71">
-            <v>-1.0524890058000001E-2</v>
+            <v>-1.0651810078E-2</v>
           </cell>
         </row>
         <row r="72">
@@ -2039,10 +2039,10 @@
             <v>42614</v>
           </cell>
           <cell r="B72">
-            <v>104.2248</v>
+            <v>104.24290000000001</v>
           </cell>
           <cell r="C72">
-            <v>-1.0278499476E-2</v>
+            <v>-1.0106621389999999E-2</v>
           </cell>
         </row>
         <row r="73">
@@ -2050,10 +2050,10 @@
             <v>42644</v>
           </cell>
           <cell r="B73">
-            <v>104.2687</v>
+            <v>104.3185</v>
           </cell>
           <cell r="C73">
-            <v>-8.5218547252999995E-3</v>
+            <v>-8.0483126974999989E-3</v>
           </cell>
         </row>
         <row r="74">
@@ -2061,10 +2061,10 @@
             <v>42675</v>
           </cell>
           <cell r="B74">
-            <v>103.7746963</v>
+            <v>103.85890000000001</v>
           </cell>
           <cell r="C74">
-            <v>-6.818101983E-3</v>
+            <v>-6.0122254326000005E-3</v>
           </cell>
         </row>
         <row r="75">
@@ -2072,10 +2072,10 @@
             <v>42705</v>
           </cell>
           <cell r="B75">
-            <v>103.81888519</v>
+            <v>104.37854197999999</v>
           </cell>
           <cell r="C75">
-            <v>-2.1751586312000002E-3</v>
+            <v>3.2038188721000001E-3</v>
           </cell>
         </row>
         <row r="76">
@@ -2083,10 +2083,10 @@
             <v>42736</v>
           </cell>
           <cell r="B76">
-            <v>104.1618</v>
+            <v>104.72867037</v>
           </cell>
           <cell r="C76">
-            <v>-3.7085390000000003E-3</v>
+            <v>1.7137372284999999E-3</v>
           </cell>
         </row>
         <row r="77">
@@ -2094,10 +2094,10 @@
             <v>42767</v>
           </cell>
           <cell r="B77">
-            <v>104.3235</v>
+            <v>104.9034</v>
           </cell>
           <cell r="C77">
-            <v>-8.6656500000000002E-4</v>
+            <v>4.6867209999999996E-3</v>
           </cell>
         </row>
         <row r="78">
@@ -2105,10 +2105,10 @@
             <v>42795</v>
           </cell>
           <cell r="B78">
-            <v>104.4786</v>
+            <v>105.0497</v>
           </cell>
           <cell r="C78">
-            <v>1.0182279999999998E-2</v>
+            <v>1.5703769999999999E-2</v>
           </cell>
         </row>
         <row r="79">
@@ -2116,10 +2116,10 @@
             <v>42826</v>
           </cell>
           <cell r="B79">
-            <v>104.53060000000001</v>
+            <v>105.06010000000001</v>
           </cell>
           <cell r="C79">
-            <v>6.6654080000000003E-3</v>
+            <v>1.176464E-2</v>
           </cell>
         </row>
         <row r="80">
@@ -2127,10 +2127,10 @@
             <v>42856</v>
           </cell>
           <cell r="B80">
-            <v>104.74469999999999</v>
+            <v>105.2303</v>
           </cell>
           <cell r="C80">
-            <v>1.0135760000000001E-2</v>
+            <v>1.481854E-2</v>
           </cell>
         </row>
         <row r="81">
@@ -2138,10 +2138,10 @@
             <v>42887</v>
           </cell>
           <cell r="B81">
-            <v>105.0245</v>
+            <v>105.45269999999999</v>
           </cell>
           <cell r="C81">
-            <v>7.6250750000000003E-3</v>
+            <v>1.18064E-2</v>
           </cell>
         </row>
         <row r="82">
@@ -2149,10 +2149,10 @@
             <v>42917</v>
           </cell>
           <cell r="B82">
-            <v>105.4653</v>
+            <v>105.8045</v>
           </cell>
           <cell r="C82">
-            <v>8.3255919999999997E-3</v>
+            <v>1.2079319999999999E-2</v>
           </cell>
         </row>
         <row r="83">
@@ -2160,10 +2160,10 @@
             <v>42948</v>
           </cell>
           <cell r="B83">
-            <v>105.8048</v>
+            <v>106.0735</v>
           </cell>
           <cell r="C83">
-            <v>1.280478E-2</v>
+            <v>1.5507169999999999E-2</v>
           </cell>
         </row>
         <row r="84">
@@ -2171,10 +2171,10 @@
             <v>42979</v>
           </cell>
           <cell r="B84">
-            <v>106.1383</v>
+            <v>106.3368</v>
           </cell>
           <cell r="C84">
-            <v>1.8359460000000001E-2</v>
+            <v>2.0086989999999999E-2</v>
           </cell>
         </row>
         <row r="85">
@@ -2182,10 +2182,10 @@
             <v>43009</v>
           </cell>
           <cell r="B85">
-            <v>106.4714</v>
+            <v>106.568</v>
           </cell>
           <cell r="C85">
-            <v>2.1125440000000002E-2</v>
+            <v>2.1564119999999999E-2</v>
           </cell>
         </row>
         <row r="86">
@@ -2193,10 +2193,10 @@
             <v>43040</v>
           </cell>
           <cell r="B86">
-            <v>106.789</v>
+            <v>106.84</v>
           </cell>
           <cell r="C86">
-            <v>2.904619E-2</v>
+            <v>2.8702969999999998E-2</v>
           </cell>
         </row>
         <row r="87">
@@ -2204,10 +2204,10 @@
             <v>43070</v>
           </cell>
           <cell r="B87">
-            <v>107.0964</v>
+            <v>107.12609999999999</v>
           </cell>
           <cell r="C87">
-            <v>3.1569759999999995E-2</v>
+            <v>2.6323050000000001E-2</v>
           </cell>
         </row>
         <row r="88">
@@ -2215,10 +2215,10 @@
             <v>43101</v>
           </cell>
           <cell r="B88">
-            <v>107.4024</v>
+            <v>107.4542</v>
           </cell>
           <cell r="C88">
-            <v>3.1111469999999999E-2</v>
+            <v>2.602471E-2</v>
           </cell>
         </row>
         <row r="89">
@@ -2226,10 +2226,10 @@
             <v>43132</v>
           </cell>
           <cell r="B89">
-            <v>107.6833</v>
+            <v>107.748</v>
           </cell>
           <cell r="C89">
-            <v>3.2205409999999997E-2</v>
+            <v>2.7116699999999997E-2</v>
           </cell>
         </row>
         <row r="90">
@@ -2237,10 +2237,10 @@
             <v>43160</v>
           </cell>
           <cell r="B90">
-            <v>107.9477</v>
+            <v>108.0352</v>
           </cell>
           <cell r="C90">
-            <v>3.3203860000000002E-2</v>
+            <v>2.8420209999999998E-2</v>
           </cell>
         </row>
         <row r="91">
@@ -2248,10 +2248,10 @@
             <v>43191</v>
           </cell>
           <cell r="B91">
-            <v>108.1588</v>
+            <v>108.2919</v>
           </cell>
           <cell r="C91">
-            <v>3.4708910000000003E-2</v>
+            <v>3.0761189999999997E-2</v>
           </cell>
         </row>
         <row r="92">
@@ -2259,10 +2259,10 @@
             <v>43221</v>
           </cell>
           <cell r="B92">
-            <v>108.4178</v>
+            <v>108.5839</v>
           </cell>
           <cell r="C92">
-            <v>3.506695E-2</v>
+            <v>3.1869330000000001E-2</v>
           </cell>
         </row>
         <row r="93">
@@ -2270,10 +2270,10 @@
             <v>43252</v>
           </cell>
           <cell r="B93">
-            <v>108.6879</v>
+            <v>108.8873</v>
           </cell>
           <cell r="C93">
-            <v>3.4882139999999999E-2</v>
+            <v>3.2570130000000003E-2</v>
           </cell>
         </row>
         <row r="94">
@@ -2281,10 +2281,10 @@
             <v>43282</v>
           </cell>
           <cell r="B94">
-            <v>109.0121</v>
+            <v>109.2546</v>
           </cell>
           <cell r="C94">
-            <v>3.3630260000000002E-2</v>
+            <v>3.2608290000000005E-2</v>
           </cell>
         </row>
         <row r="95">
@@ -2292,10 +2292,10 @@
             <v>43313</v>
           </cell>
           <cell r="B95">
-            <v>109.2723</v>
+            <v>109.54130000000001</v>
           </cell>
           <cell r="C95">
-            <v>3.2773080000000003E-2</v>
+            <v>3.2692990000000005E-2</v>
           </cell>
         </row>
         <row r="96">
@@ -2303,10 +2303,10 @@
             <v>43344</v>
           </cell>
           <cell r="B96">
-            <v>109.51139999999999</v>
+            <v>109.8001</v>
           </cell>
           <cell r="C96">
-            <v>3.1780469999999998E-2</v>
+            <v>3.2568559999999996E-2</v>
           </cell>
         </row>
         <row r="97">
@@ -2314,10 +2314,10 @@
             <v>43374</v>
           </cell>
           <cell r="B97">
-            <v>109.70699999999999</v>
+            <v>110.012</v>
           </cell>
           <cell r="C97">
-            <v>3.0388850000000002E-2</v>
+            <v>3.2317100000000001E-2</v>
           </cell>
         </row>
         <row r="98">
@@ -2325,10 +2325,10 @@
             <v>43405</v>
           </cell>
           <cell r="B98">
-            <v>109.9208</v>
+            <v>110.22880000000001</v>
           </cell>
           <cell r="C98">
-            <v>2.9327420000000003E-2</v>
+            <v>3.1718400000000001E-2</v>
           </cell>
         </row>
         <row r="99">
@@ -2336,10 +2336,10 @@
             <v>43435</v>
           </cell>
           <cell r="B99">
-            <v>110.13039999999999</v>
+            <v>110.4315</v>
           </cell>
           <cell r="C99">
-            <v>2.8329710000000001E-2</v>
+            <v>3.0855570000000002E-2</v>
           </cell>
         </row>
         <row r="102">
@@ -2349,7 +2349,7 @@
         </row>
         <row r="103">
           <cell r="A103">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B103">
             <v>-0.2</v>
@@ -2357,7 +2357,7 @@
         </row>
         <row r="104">
           <cell r="A104">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B104">
             <v>0.6</v>
@@ -3136,10 +3136,10 @@
         <v>42522</v>
       </c>
       <c r="B69" s="11">
-        <v>104.22969999999999</v>
+        <v>104.2222</v>
       </c>
       <c r="C69" s="13">
-        <v>-6.0099237173000001E-3</v>
+        <v>-6.0814477221999997E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3147,10 +3147,10 @@
         <v>42552</v>
       </c>
       <c r="B70" s="11">
-        <v>104.5945</v>
+        <v>104.54170000000001</v>
       </c>
       <c r="C70" s="13">
-        <v>-8.3526506154999996E-3</v>
+        <v>-8.8532408000000003E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3158,10 +3158,10 @@
         <v>42583</v>
       </c>
       <c r="B71" s="11">
-        <v>104.4671</v>
+        <v>104.4537</v>
       </c>
       <c r="C71" s="13">
-        <v>-1.0524890058000001E-2</v>
+        <v>-1.0651810078E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3169,10 +3169,10 @@
         <v>42614</v>
       </c>
       <c r="B72" s="11">
-        <v>104.2248</v>
+        <v>104.24290000000001</v>
       </c>
       <c r="C72" s="13">
-        <v>-1.0278499476E-2</v>
+        <v>-1.0106621389999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3180,10 +3180,10 @@
         <v>42644</v>
       </c>
       <c r="B73" s="11">
-        <v>104.2687</v>
+        <v>104.3185</v>
       </c>
       <c r="C73" s="13">
-        <v>-8.5218547252999995E-3</v>
+        <v>-8.0483126974999989E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3191,10 +3191,10 @@
         <v>42675</v>
       </c>
       <c r="B74" s="11">
-        <v>103.7746963</v>
+        <v>103.85890000000001</v>
       </c>
       <c r="C74" s="13">
-        <v>-6.818101983E-3</v>
+        <v>-6.0122254326000005E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3202,10 +3202,10 @@
         <v>42705</v>
       </c>
       <c r="B75" s="11">
-        <v>103.81888519</v>
+        <v>104.37854197999999</v>
       </c>
       <c r="C75" s="13">
-        <v>-2.1751586312000002E-3</v>
+        <v>3.2038188721000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3213,10 +3213,10 @@
         <v>42736</v>
       </c>
       <c r="B76" s="11">
-        <v>104.1618</v>
+        <v>104.72867037</v>
       </c>
       <c r="C76" s="13">
-        <v>-3.7085390000000003E-3</v>
+        <v>1.7137372284999999E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3224,10 +3224,10 @@
         <v>42767</v>
       </c>
       <c r="B77" s="11">
-        <v>104.3235</v>
+        <v>104.9034</v>
       </c>
       <c r="C77" s="13">
-        <v>-8.6656500000000002E-4</v>
+        <v>4.6867209999999996E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3235,10 +3235,10 @@
         <v>42795</v>
       </c>
       <c r="B78" s="11">
-        <v>104.4786</v>
+        <v>105.0497</v>
       </c>
       <c r="C78" s="13">
-        <v>1.0182279999999998E-2</v>
+        <v>1.5703769999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3246,10 +3246,10 @@
         <v>42826</v>
       </c>
       <c r="B79" s="11">
-        <v>104.53060000000001</v>
+        <v>105.06010000000001</v>
       </c>
       <c r="C79" s="13">
-        <v>6.6654080000000003E-3</v>
+        <v>1.176464E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3257,10 +3257,10 @@
         <v>42856</v>
       </c>
       <c r="B80" s="11">
-        <v>104.74469999999999</v>
+        <v>105.2303</v>
       </c>
       <c r="C80" s="13">
-        <v>1.0135760000000001E-2</v>
+        <v>1.481854E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3268,10 +3268,10 @@
         <v>42887</v>
       </c>
       <c r="B81" s="11">
-        <v>105.0245</v>
+        <v>105.45269999999999</v>
       </c>
       <c r="C81" s="13">
-        <v>7.6250750000000003E-3</v>
+        <v>1.18064E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3279,10 +3279,10 @@
         <v>42917</v>
       </c>
       <c r="B82" s="11">
-        <v>105.4653</v>
+        <v>105.8045</v>
       </c>
       <c r="C82" s="13">
-        <v>8.3255919999999997E-3</v>
+        <v>1.2079319999999999E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3290,10 +3290,10 @@
         <v>42948</v>
       </c>
       <c r="B83" s="11">
-        <v>105.8048</v>
+        <v>106.0735</v>
       </c>
       <c r="C83" s="13">
-        <v>1.280478E-2</v>
+        <v>1.5507169999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3301,10 +3301,10 @@
         <v>42979</v>
       </c>
       <c r="B84" s="11">
-        <v>106.1383</v>
+        <v>106.3368</v>
       </c>
       <c r="C84" s="13">
-        <v>1.8359460000000001E-2</v>
+        <v>2.0086989999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3312,10 +3312,10 @@
         <v>43009</v>
       </c>
       <c r="B85" s="11">
-        <v>106.4714</v>
+        <v>106.568</v>
       </c>
       <c r="C85" s="13">
-        <v>2.1125440000000002E-2</v>
+        <v>2.1564119999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3323,10 +3323,10 @@
         <v>43040</v>
       </c>
       <c r="B86" s="11">
-        <v>106.789</v>
+        <v>106.84</v>
       </c>
       <c r="C86" s="13">
-        <v>2.904619E-2</v>
+        <v>2.8702969999999998E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3334,10 +3334,10 @@
         <v>43070</v>
       </c>
       <c r="B87" s="11">
-        <v>107.0964</v>
+        <v>107.12609999999999</v>
       </c>
       <c r="C87" s="13">
-        <v>3.1569759999999995E-2</v>
+        <v>2.6323050000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3345,10 +3345,10 @@
         <v>43101</v>
       </c>
       <c r="B88" s="11">
-        <v>107.4024</v>
+        <v>107.4542</v>
       </c>
       <c r="C88" s="13">
-        <v>3.1111469999999999E-2</v>
+        <v>2.602471E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3356,10 +3356,10 @@
         <v>43132</v>
       </c>
       <c r="B89" s="11">
-        <v>107.6833</v>
+        <v>107.748</v>
       </c>
       <c r="C89" s="13">
-        <v>3.2205409999999997E-2</v>
+        <v>2.7116699999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3367,10 +3367,10 @@
         <v>43160</v>
       </c>
       <c r="B90" s="11">
-        <v>107.9477</v>
+        <v>108.0352</v>
       </c>
       <c r="C90" s="13">
-        <v>3.3203860000000002E-2</v>
+        <v>2.8420209999999998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3378,10 +3378,10 @@
         <v>43191</v>
       </c>
       <c r="B91" s="11">
-        <v>108.1588</v>
+        <v>108.2919</v>
       </c>
       <c r="C91" s="13">
-        <v>3.4708910000000003E-2</v>
+        <v>3.0761189999999997E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3389,10 +3389,10 @@
         <v>43221</v>
       </c>
       <c r="B92" s="11">
-        <v>108.4178</v>
+        <v>108.5839</v>
       </c>
       <c r="C92" s="13">
-        <v>3.506695E-2</v>
+        <v>3.1869330000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3400,10 +3400,10 @@
         <v>43252</v>
       </c>
       <c r="B93" s="11">
-        <v>108.6879</v>
+        <v>108.8873</v>
       </c>
       <c r="C93" s="13">
-        <v>3.4882139999999999E-2</v>
+        <v>3.2570130000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3411,10 +3411,10 @@
         <v>43282</v>
       </c>
       <c r="B94" s="11">
-        <v>109.0121</v>
+        <v>109.2546</v>
       </c>
       <c r="C94" s="13">
-        <v>3.3630260000000002E-2</v>
+        <v>3.2608290000000005E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3422,10 +3422,10 @@
         <v>43313</v>
       </c>
       <c r="B95" s="11">
-        <v>109.2723</v>
+        <v>109.54130000000001</v>
       </c>
       <c r="C95" s="13">
-        <v>3.2773080000000003E-2</v>
+        <v>3.2692990000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3433,10 +3433,10 @@
         <v>43344</v>
       </c>
       <c r="B96" s="11">
-        <v>109.51139999999999</v>
+        <v>109.8001</v>
       </c>
       <c r="C96" s="13">
-        <v>3.1780469999999998E-2</v>
+        <v>3.2568559999999996E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3444,10 +3444,10 @@
         <v>43374</v>
       </c>
       <c r="B97" s="11">
-        <v>109.70699999999999</v>
+        <v>110.012</v>
       </c>
       <c r="C97" s="13">
-        <v>3.0388850000000002E-2</v>
+        <v>3.2317100000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3455,10 +3455,10 @@
         <v>43405</v>
       </c>
       <c r="B98" s="11">
-        <v>109.9208</v>
+        <v>110.22880000000001</v>
       </c>
       <c r="C98" s="13">
-        <v>2.9327420000000003E-2</v>
+        <v>3.1718400000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3466,10 +3466,10 @@
         <v>43435</v>
       </c>
       <c r="B99" s="15">
-        <v>110.13039999999999</v>
+        <v>110.4315</v>
       </c>
       <c r="C99" s="16">
-        <v>2.8329710000000001E-2</v>
+        <v>3.0855570000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B103" s="2">
         <v>-0.2</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B104" s="2">
         <v>0.6</v>
